--- a/res/Month Files.xlsx
+++ b/res/Month Files.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\ESI\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\ESI\ESI - Python\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607BE27-3BF0-4E1F-B6BB-460F068AA52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA90F2-55DC-4578-97BD-E62FF1FAF3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2B4C4C13-22AC-4198-AD31-611E0192F8DC}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -436,11 +436,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AB3AC0-B6A2-4FF1-9275-6BD1051A4B9C}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1097,10 +1098,10 @@
       <c r="I10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="28" t="s">
         <v>36</v>
       </c>
@@ -1115,8 +1116,8 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1129,8 +1130,8 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1143,8 +1144,8 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1157,8 +1158,8 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1171,8 +1172,8 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1185,8 +1186,8 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1199,8 +1200,8 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1213,8 +1214,8 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1227,8 +1228,8 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1241,8 +1242,8 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1255,8 +1256,8 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1269,8 +1270,8 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1283,8 +1284,8 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1297,8 +1298,8 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="26"/>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1311,8 +1312,8 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1325,15 +1326,15 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="26"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="33">
         <f>SUM(H11:H26)</f>
         <v>0</v>
       </c>
@@ -1345,16 +1346,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J20:K20"/>
@@ -1362,6 +1353,16 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
